--- a/uploads/proceededExcelSheets/Faculty_of_Science_21_batch.xlsx
+++ b/uploads/proceededExcelSheets/Faculty_of_Science_21_batch.xlsx
@@ -134,6 +134,9 @@
     <t>2001313101673</t>
   </si>
   <si>
+    <t>s20422@sci.pdn.ac.lk</t>
+  </si>
+  <si>
     <t>0725523416</t>
   </si>
   <si>
@@ -335,37 +338,34 @@
     <t>2553032</t>
   </si>
   <si>
+    <t>e20422</t>
+  </si>
+  <si>
+    <t>e20390</t>
+  </si>
+  <si>
+    <t>e20313</t>
+  </si>
+  <si>
+    <t>e20591</t>
+  </si>
+  <si>
+    <t>e20459</t>
+  </si>
+  <si>
     <t>C 31/1, Dangampala, Dehiowita</t>
   </si>
   <si>
-    <t>a21422</t>
-  </si>
-  <si>
-    <t>a21390</t>
-  </si>
-  <si>
-    <t>a21313</t>
-  </si>
-  <si>
-    <t>a21591</t>
-  </si>
-  <si>
-    <t>a21459</t>
-  </si>
-  <si>
-    <t>a21422@sci.pdn.ac.lk</t>
-  </si>
-  <si>
-    <t>a21390@sci.pdn.ac.lk</t>
-  </si>
-  <si>
-    <t>a21313@sci.pdn.ac.lk</t>
-  </si>
-  <si>
-    <t>a21591@sci.pdn.ac.lk</t>
-  </si>
-  <si>
-    <t>a21459@sci.pdn.ac.lk</t>
+    <t>e20390@sci.pdn.ac.lk</t>
+  </si>
+  <si>
+    <t>e20313@sci.pdn.ac.lk</t>
+  </si>
+  <si>
+    <t>e20591@sci.pdn.ac.lk</t>
+  </si>
+  <si>
+    <t>e20459@sci.pdn.ac.lk</t>
   </si>
 </sst>
 </file>
@@ -861,7 +861,7 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
@@ -1047,7 +1047,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>26</v>
@@ -1068,7 +1068,7 @@
         <v>29</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>30</v>
@@ -1077,306 +1077,306 @@
         <v>31</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U5" s="4">
         <v>75</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="24.95" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="19" t="s">
         <v>106</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U6" s="4">
         <v>75</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="24.95" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R7" s="19" t="s">
         <v>107</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U7" s="4">
         <v>75</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="24.95" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="Q8" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R8" s="19" t="s">
         <v>108</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" s="4">
         <v>75</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="24.95" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R9" s="19" t="s">
         <v>109</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" s="4">
         <v>75</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
